--- a/dna_source_plates/cargo_plates/P3628_SSW_plate.xlsx
+++ b/dna_source_plates/cargo_plates/P3628_SSW_plate.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/cargo_plates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F383461-0146-B045-A839-6AF3D486D37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="13260" yWindow="-15260" windowWidth="27200" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
     <sheet name="Names" sheetId="2" r:id="rId2"/>
     <sheet name="Descriptions" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>1</t>
   </si>
@@ -147,27 +153,15 @@
     <t>/5Biosg/ tttttttttt GGATTTAATGGATGAAGTAGG</t>
   </si>
   <si>
-    <t>ACCATCACCCAAACTATTAAAGAACGTGGAGAGAGAGTTGCA</t>
-  </si>
-  <si>
     <t>CATAAAGTGGTGAGACGGGCAACAGCTGAGAAAGCGAAAGGAttATACATCTA</t>
   </si>
   <si>
-    <t>GCAAGCGGTCCACGGTTTTTCTTTTCACCATAAAGCCTGGGG</t>
-  </si>
-  <si>
     <t>ATCCGCCGGGATCCAGCGCAGTGTCACTCGCCGCTACAGGGCttATACATCTA</t>
   </si>
   <si>
-    <t>TGCCTAATGAGTGGTGTGAAATTGTTATCCCTGCGGCCAGAA</t>
-  </si>
-  <si>
     <t>GACCGTAATCTGTTGGGAAGGGCGATCGAAAAGAGTCTGTCCttATACATCTA</t>
   </si>
   <si>
-    <t>TGCGGCGGGCCGTTGCCCCCTGCATCAGACGCGCGGTTGCGG</t>
-  </si>
-  <si>
     <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGAttATACATCTA</t>
   </si>
   <si>
@@ -240,25 +234,13 @@
     <t>Quimby handle with 5' biotin for surface functionalization</t>
   </si>
   <si>
-    <t>Core staples h1 to h1 #1</t>
-  </si>
-  <si>
     <t>h5-pos2-DNAPAINT-P1-9nts-dock</t>
   </si>
   <si>
-    <t>Core staples h1 to h1 #2</t>
-  </si>
-  <si>
     <t>h5-pos4-DNAPAINT-P1-9nts-dock</t>
   </si>
   <si>
-    <t>Core staples h1 to h1 #3</t>
-  </si>
-  <si>
     <t>h5-pos8-DNAPAINT-P1-9nts-dock</t>
-  </si>
-  <si>
-    <t>Core staples h1 to h1 #4</t>
   </si>
   <si>
     <t>h5-pos16-DNAPAINT-P1-9nts-dock</t>
@@ -288,8 +270,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,13 +334,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,7 +386,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -430,6 +420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -464,9 +455,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,14 +631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -723,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -731,173 +725,113 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -908,16 +842,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -992,181 +928,121 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1177,14 +1053,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1261,181 +1139,121 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" t="s">
-        <v>87</v>
-      </c>
       <c r="S2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>

--- a/dna_source_plates/cargo_plates/P3628_SSW_plate.xlsx
+++ b/dna_source_plates/cargo_plates/P3628_SSW_plate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/cargo_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/dna_source_plates/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F383461-0146-B045-A839-6AF3D486D37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF76104-ADD6-7846-83EC-F5E92ECC1026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="-15260" windowWidth="27200" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,7 +846,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="T2" sqref="T2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
